--- a/biology/Zoologie/Capromys/Capromys.xlsx
+++ b/biology/Zoologie/Capromys/Capromys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hutias à longue queue
-Capromys est un genre de Rongeurs qui comprend des hutias à longue queue[1], endémiques de Cuba.
+Capromys est un genre de Rongeurs qui comprend des hutias à longue queue, endémiques de Cuba.
 Ce genre a été décrit pour la première fois en 1822 par le zoologiste français Anselme Gaëtan Desmarest (1784-1838).
 </t>
         </is>
@@ -513,15 +525,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (9 janv. 2013)[2] et ITIS      (9 janv. 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (9 janv. 2013) et ITIS      (9 janv. 2013) :
 Capromys gundlachianus (Varona, 1983)
 Capromys pilorides (Say, 1822)
-Selon NCBI  (9 janv. 2013)[4] et Catalogue of Life                                   (9 janv. 2013)[5]:
+Selon NCBI  (9 janv. 2013) et Catalogue of Life                                   (9 janv. 2013):
 Capromys pilorides
 Noms devenus synonymes
-Capromys elegans Cabrera, 1901[6], un synonyme de Phloeomys cumingi, aussi appelé Rat de Cuming.</t>
+Capromys elegans Cabrera, 1901, un synonyme de Phloeomys cumingi, aussi appelé Rat de Cuming.</t>
         </is>
       </c>
     </row>
